--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Dll1</t>
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H2">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I2">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J2">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>484.6682335616707</v>
+        <v>583.62566767854</v>
       </c>
       <c r="R2">
-        <v>4362.014102055037</v>
+        <v>5252.631009106861</v>
       </c>
       <c r="S2">
-        <v>0.1829571616549161</v>
+        <v>0.2719311087346098</v>
       </c>
       <c r="T2">
-        <v>0.1829571616549161</v>
+        <v>0.2719311087346097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H3">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I3">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J3">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
-        <v>61.40045965138033</v>
+        <v>53.313964794319</v>
       </c>
       <c r="R3">
-        <v>552.604136862423</v>
+        <v>479.825683148871</v>
       </c>
       <c r="S3">
-        <v>0.02317802786366096</v>
+        <v>0.02484079498289379</v>
       </c>
       <c r="T3">
-        <v>0.02317802786366096</v>
+        <v>0.02484079498289379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H4">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I4">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J4">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>152.1887799717973</v>
+        <v>150.355600855491</v>
       </c>
       <c r="R4">
-        <v>1369.699019746176</v>
+        <v>1353.200407699419</v>
       </c>
       <c r="S4">
-        <v>0.05744966410269513</v>
+        <v>0.07005580376155122</v>
       </c>
       <c r="T4">
-        <v>0.05744966410269513</v>
+        <v>0.07005580376155121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H5">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I5">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J5">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>352.8703275890467</v>
+        <v>106.081724910799</v>
       </c>
       <c r="R5">
-        <v>3175.83294830142</v>
+        <v>954.7355241971911</v>
       </c>
       <c r="S5">
-        <v>0.1332048380672705</v>
+        <v>0.04942709457282178</v>
       </c>
       <c r="T5">
-        <v>0.1332048380672705</v>
+        <v>0.04942709457282176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H6">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I6">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J6">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>306.3992213265907</v>
+        <v>340.793024280143</v>
       </c>
       <c r="R6">
-        <v>2757.592991939317</v>
+        <v>3067.137218521287</v>
       </c>
       <c r="S6">
-        <v>0.1156624841187502</v>
+        <v>0.1587870960338978</v>
       </c>
       <c r="T6">
-        <v>0.1156624841187502</v>
+        <v>0.1587870960338978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H7">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I7">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J7">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>171.23563840869</v>
+        <v>113.322788799653</v>
       </c>
       <c r="R7">
-        <v>1541.12074567821</v>
+        <v>1019.905099196877</v>
       </c>
       <c r="S7">
-        <v>0.06463965287594009</v>
+        <v>0.05280095326472354</v>
       </c>
       <c r="T7">
-        <v>0.06463965287594009</v>
+        <v>0.05280095326472353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.27398</v>
       </c>
       <c r="I8">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J8">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N8">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q8">
-        <v>4.121671221235555</v>
+        <v>5.716020995066667</v>
       </c>
       <c r="R8">
-        <v>37.09504099112</v>
+        <v>51.4441889556</v>
       </c>
       <c r="S8">
-        <v>0.001555887544703414</v>
+        <v>0.002663289181439715</v>
       </c>
       <c r="T8">
-        <v>0.001555887544703414</v>
+        <v>0.002663289181439715</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.27398</v>
       </c>
       <c r="I9">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J9">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q9">
         <v>0.5221561678511111</v>
@@ -1013,10 +1013,10 @@
         <v>4.699405510659999</v>
       </c>
       <c r="S9">
-        <v>0.0001971084626459048</v>
+        <v>0.0002432903717568772</v>
       </c>
       <c r="T9">
-        <v>0.0001971084626459048</v>
+        <v>0.0002432903717568771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.27398</v>
       </c>
       <c r="I10">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J10">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N10">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O10">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P10">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q10">
-        <v>1.294229889991111</v>
+        <v>1.472580489193333</v>
       </c>
       <c r="R10">
-        <v>11.64806900992</v>
+        <v>13.25322440274</v>
       </c>
       <c r="S10">
-        <v>0.0004885581740351427</v>
+        <v>0.0006861254864271306</v>
       </c>
       <c r="T10">
-        <v>0.0004885581740351428</v>
+        <v>0.0006861254864271306</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.27398</v>
       </c>
       <c r="I11">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J11">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N11">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q11">
-        <v>3.000847535155555</v>
+        <v>1.038962815317778</v>
       </c>
       <c r="R11">
-        <v>27.0076278164</v>
+        <v>9.350665337860001</v>
       </c>
       <c r="S11">
-        <v>0.001132788389196858</v>
+        <v>0.0004840882194698297</v>
       </c>
       <c r="T11">
-        <v>0.001132788389196858</v>
+        <v>0.0004840882194698295</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.27398</v>
       </c>
       <c r="I12">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J12">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N12">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q12">
-        <v>2.605652207635555</v>
+        <v>3.337721744668889</v>
       </c>
       <c r="R12">
-        <v>23.45086986872</v>
+        <v>30.03949570202</v>
       </c>
       <c r="S12">
-        <v>0.0009836063087229495</v>
+        <v>0.001555158425923358</v>
       </c>
       <c r="T12">
-        <v>0.0009836063087229495</v>
+        <v>0.001555158425923358</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>0.27398</v>
       </c>
       <c r="I13">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J13">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N13">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q13">
-        <v>1.4562064398</v>
+        <v>1.109881685935556</v>
       </c>
       <c r="R13">
-        <v>13.1058579582</v>
+        <v>9.98893517342</v>
       </c>
       <c r="S13">
-        <v>0.000549702618328333</v>
+        <v>0.0005171317406604036</v>
       </c>
       <c r="T13">
-        <v>0.0005497026183283329</v>
+        <v>0.0005171317406604034</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H14">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I14">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J14">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N14">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q14">
-        <v>351.0560425554093</v>
+        <v>22.92081024162</v>
       </c>
       <c r="R14">
-        <v>3159.504382998684</v>
+        <v>206.28729217458</v>
       </c>
       <c r="S14">
-        <v>0.1325199645451336</v>
+        <v>0.01067958742611777</v>
       </c>
       <c r="T14">
-        <v>0.1325199645451336</v>
+        <v>0.01067958742611777</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H15">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I15">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J15">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q15">
-        <v>44.47372632180966</v>
+        <v>2.093806592057</v>
       </c>
       <c r="R15">
-        <v>400.2635368962869</v>
+        <v>18.844259328513</v>
       </c>
       <c r="S15">
-        <v>0.01678836402431659</v>
+        <v>0.0009755759206387465</v>
       </c>
       <c r="T15">
-        <v>0.01678836402431659</v>
+        <v>0.0009755759206387461</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H16">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I16">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J16">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N16">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O16">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P16">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q16">
-        <v>110.2337374694826</v>
+        <v>5.904935966372999</v>
       </c>
       <c r="R16">
-        <v>992.1036372253438</v>
+        <v>53.14442369735699</v>
       </c>
       <c r="S16">
-        <v>0.04161207673509195</v>
+        <v>0.002751311111332273</v>
       </c>
       <c r="T16">
-        <v>0.04161207673509196</v>
+        <v>0.002751311111332273</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H17">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I17">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J17">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N17">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q17">
-        <v>255.5918712235533</v>
+        <v>4.166162013497</v>
       </c>
       <c r="R17">
-        <v>2300.326841011979</v>
+        <v>37.495458121473</v>
       </c>
       <c r="S17">
-        <v>0.09648324371805551</v>
+        <v>0.001941157009088671</v>
       </c>
       <c r="T17">
-        <v>0.09648324371805551</v>
+        <v>0.001941157009088671</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H18">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I18">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J18">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N18">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q18">
-        <v>221.9318094988893</v>
+        <v>13.384010803129</v>
       </c>
       <c r="R18">
-        <v>1997.386285490004</v>
+        <v>120.456097228161</v>
       </c>
       <c r="S18">
-        <v>0.08377692436838806</v>
+        <v>0.006236067223512708</v>
       </c>
       <c r="T18">
-        <v>0.08377692436838806</v>
+        <v>0.006236067223512708</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H19">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I19">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J19">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,772 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N19">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q19">
-        <v>124.02980307261</v>
+        <v>4.450541300658999</v>
       </c>
       <c r="R19">
-        <v>1116.26822765349</v>
+        <v>40.054871705931</v>
       </c>
       <c r="S19">
-        <v>0.04681994642814875</v>
+        <v>0.002073659020466476</v>
       </c>
       <c r="T19">
-        <v>0.04681994642814875</v>
+        <v>0.002073659020466476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.013987</v>
+      </c>
+      <c r="H20">
+        <v>15.041961</v>
+      </c>
+      <c r="I20">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J20">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.58874</v>
+      </c>
+      <c r="N20">
+        <v>187.76622</v>
+      </c>
+      <c r="O20">
+        <v>0.4331197020873656</v>
+      </c>
+      <c r="P20">
+        <v>0.4331197020873655</v>
+      </c>
+      <c r="Q20">
+        <v>313.81912870638</v>
+      </c>
+      <c r="R20">
+        <v>2824.37215835742</v>
+      </c>
+      <c r="S20">
+        <v>0.1462190378821013</v>
+      </c>
+      <c r="T20">
+        <v>0.1462190378821013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.013987</v>
+      </c>
+      <c r="H21">
+        <v>15.041961</v>
+      </c>
+      <c r="I21">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J21">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.717455666666666</v>
+      </c>
+      <c r="N21">
+        <v>17.152367</v>
+      </c>
+      <c r="O21">
+        <v>0.03956530671562308</v>
+      </c>
+      <c r="P21">
+        <v>0.03956530671562306</v>
+      </c>
+      <c r="Q21">
+        <v>28.667248385743</v>
+      </c>
+      <c r="R21">
+        <v>258.005235471687</v>
+      </c>
+      <c r="S21">
+        <v>0.01335704899497207</v>
+      </c>
+      <c r="T21">
+        <v>0.01335704899497206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.013987</v>
+      </c>
+      <c r="H22">
+        <v>15.041961</v>
+      </c>
+      <c r="I22">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J22">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.124321</v>
+      </c>
+      <c r="N22">
+        <v>48.372963</v>
+      </c>
+      <c r="O22">
+        <v>0.111581749494894</v>
+      </c>
+      <c r="P22">
+        <v>0.111581749494894</v>
+      </c>
+      <c r="Q22">
+        <v>80.847135877827</v>
+      </c>
+      <c r="R22">
+        <v>727.624222900443</v>
+      </c>
+      <c r="S22">
+        <v>0.03766943867414749</v>
+      </c>
+      <c r="T22">
+        <v>0.03766943867414748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.013987</v>
+      </c>
+      <c r="H23">
+        <v>15.041961</v>
+      </c>
+      <c r="I23">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J23">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.37633566666667</v>
+      </c>
+      <c r="N23">
+        <v>34.129007</v>
+      </c>
+      <c r="O23">
+        <v>0.07872526455705194</v>
+      </c>
+      <c r="P23">
+        <v>0.07872526455705191</v>
+      </c>
+      <c r="Q23">
+        <v>57.04079914030301</v>
+      </c>
+      <c r="R23">
+        <v>513.367192262727</v>
+      </c>
+      <c r="S23">
+        <v>0.02657725424419527</v>
+      </c>
+      <c r="T23">
+        <v>0.02657725424419526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.013987</v>
+      </c>
+      <c r="H24">
+        <v>15.041961</v>
+      </c>
+      <c r="I24">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J24">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>36.54706633333333</v>
+      </c>
+      <c r="N24">
+        <v>109.641199</v>
+      </c>
+      <c r="O24">
+        <v>0.2529089814311731</v>
+      </c>
+      <c r="P24">
+        <v>0.2529089814311731</v>
+      </c>
+      <c r="Q24">
+        <v>183.246515483471</v>
+      </c>
+      <c r="R24">
+        <v>1649.218639351239</v>
+      </c>
+      <c r="S24">
+        <v>0.08538080294751639</v>
+      </c>
+      <c r="T24">
+        <v>0.08538080294751638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.013987</v>
+      </c>
+      <c r="H25">
+        <v>15.041961</v>
+      </c>
+      <c r="I25">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J25">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.15287633333333</v>
+      </c>
+      <c r="N25">
+        <v>36.458629</v>
+      </c>
+      <c r="O25">
+        <v>0.08409899571389245</v>
+      </c>
+      <c r="P25">
+        <v>0.08409899571389244</v>
+      </c>
+      <c r="Q25">
+        <v>60.934363947941</v>
+      </c>
+      <c r="R25">
+        <v>548.409275531469</v>
+      </c>
+      <c r="S25">
+        <v>0.02839139891552633</v>
+      </c>
+      <c r="T25">
+        <v>0.02839139891552632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.167341</v>
+      </c>
+      <c r="I26">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J26">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>62.58874</v>
+      </c>
+      <c r="N26">
+        <v>187.76622</v>
+      </c>
+      <c r="O26">
+        <v>0.4331197020873656</v>
+      </c>
+      <c r="P26">
+        <v>0.4331197020873655</v>
+      </c>
+      <c r="Q26">
+        <v>3.491220780113333</v>
+      </c>
+      <c r="R26">
+        <v>31.42098702102</v>
+      </c>
+      <c r="S26">
+        <v>0.001626678863096954</v>
+      </c>
+      <c r="T26">
+        <v>0.001626678863096953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.167341</v>
+      </c>
+      <c r="I27">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J27">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.717455666666666</v>
+      </c>
+      <c r="N27">
+        <v>17.152367</v>
+      </c>
+      <c r="O27">
+        <v>0.03956530671562308</v>
+      </c>
+      <c r="P27">
+        <v>0.03956530671562306</v>
+      </c>
+      <c r="Q27">
+        <v>0.3189215829052222</v>
+      </c>
+      <c r="R27">
+        <v>2.870294246147</v>
+      </c>
+      <c r="S27">
+        <v>0.0001485964453615869</v>
+      </c>
+      <c r="T27">
+        <v>0.0001485964453615868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.167341</v>
+      </c>
+      <c r="I28">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J28">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>16.124321</v>
+      </c>
+      <c r="N28">
+        <v>48.372963</v>
+      </c>
+      <c r="O28">
+        <v>0.111581749494894</v>
+      </c>
+      <c r="P28">
+        <v>0.111581749494894</v>
+      </c>
+      <c r="Q28">
+        <v>0.8994200001536665</v>
+      </c>
+      <c r="R28">
+        <v>8.094780001382999</v>
+      </c>
+      <c r="S28">
+        <v>0.0004190704614358802</v>
+      </c>
+      <c r="T28">
+        <v>0.0004190704614358801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.167341</v>
+      </c>
+      <c r="I29">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J29">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.37633566666667</v>
+      </c>
+      <c r="N29">
+        <v>34.129007</v>
+      </c>
+      <c r="O29">
+        <v>0.07872526455705194</v>
+      </c>
+      <c r="P29">
+        <v>0.07872526455705191</v>
+      </c>
+      <c r="Q29">
+        <v>0.6345757955985556</v>
+      </c>
+      <c r="R29">
+        <v>5.711182160387</v>
+      </c>
+      <c r="S29">
+        <v>0.0002956705114763879</v>
+      </c>
+      <c r="T29">
+        <v>0.0002956705114763878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.167341</v>
+      </c>
+      <c r="I30">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J30">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>36.54706633333333</v>
+      </c>
+      <c r="N30">
+        <v>109.641199</v>
+      </c>
+      <c r="O30">
+        <v>0.2529089814311731</v>
+      </c>
+      <c r="P30">
+        <v>0.2529089814311731</v>
+      </c>
+      <c r="Q30">
+        <v>2.038607542428778</v>
+      </c>
+      <c r="R30">
+        <v>18.347467881859</v>
+      </c>
+      <c r="S30">
+        <v>0.0009498568003227994</v>
+      </c>
+      <c r="T30">
+        <v>0.0009498568003227994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.167341</v>
+      </c>
+      <c r="I31">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J31">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>12.15287633333333</v>
+      </c>
+      <c r="N31">
+        <v>36.458629</v>
+      </c>
+      <c r="O31">
+        <v>0.08409899571389245</v>
+      </c>
+      <c r="P31">
+        <v>0.08409899571389244</v>
+      </c>
+      <c r="Q31">
+        <v>0.677891492832111</v>
+      </c>
+      <c r="R31">
+        <v>6.101023435489</v>
+      </c>
+      <c r="S31">
+        <v>0.000315852772515704</v>
+      </c>
+      <c r="T31">
+        <v>0.0003158527725157039</v>
       </c>
     </row>
   </sheetData>
